--- a/biology/Botanique/Zygogynum_amplexicaule/Zygogynum_amplexicaule.xlsx
+++ b/biology/Botanique/Zygogynum_amplexicaule/Zygogynum_amplexicaule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zygogynum amplexicaule est une espèce d'arbres de la famille des Winteraceae, endémique de la Nouvelle-Calédonie. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Petit arbre pouvant atteindre 10 m de haut[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petit arbre pouvant atteindre 10 m de haut.
 Fleurs de couleur variabe selon les sous-espèces.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique à l'intérieur de la Grande Terre[1], en sous-bois de la forêt dense humide, sur des sols d'alluvions de substrat sédimentaires ou ultramafique.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique à l'intérieur de la Grande Terre, en sous-bois de la forêt dense humide, sur des sols d'alluvions de substrat sédimentaires ou ultramafique.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (11 juin 2013)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (11 juin 2013) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Zygogynum amplexicaule subsp. luteum Vink
 variété Zygogynum amplexicaule var. amplexicaule
 variété Zygogynum amplexicaule var. isoneurum (Tiegh.) Vink</t>
